--- a/biology/Zoologie/Croc-Blanc_(film,_1973)/Croc-Blanc_(film,_1973).xlsx
+++ b/biology/Zoologie/Croc-Blanc_(film,_1973)/Croc-Blanc_(film,_1973).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croc-Blanc (titre original : Zanna Bianca) est un film franco-hispano-italien réalisé par Lucio Fulci, sorti en 1973.
 Le film est une adaptation du roman éponyme de Jack London, Croc-Blanc.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1896, au Yukon, Canada. Un jeune chien-loup est recueilli par des Amérindiens (Mishka et Charlie) qui l'appellent Croc-Blanc. Mishka est malade et son père l'emmène en ville consulter un médecin. Croc-Blanc se fait remarquer en tuant le chien le plus fort de la ville. Un homme veut l'acheter, mais Charlie refuse.
 </t>
@@ -543,10 +557,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Zanna Bianca
-Titre français : Croc-Blanc[1]
+Titre français : Croc-Blanc
 Réalisation : Lucio Fulci, assisté de Bernard Farrel et Tonino Ricci
 Scénario : Guy Elmes, Roberto Gianviti, Thom Keyes, Piero Regnoli et Guillaume Roux
 Dialogues : Harry Alan Towers
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Franco Nero (VF : Philippe Ogouz) : Jason Scott
 Raimund Harmstorf (VF : Marc de Georgi) : Kurt Jansen
@@ -629,9 +647,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été tourné en Autriche à Bad Mitterndorf, qui représente la cité canadienne de Dawson ainsi que dans la montagne voisine de Tauplitzalm (de)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été tourné en Autriche à Bad Mitterndorf, qui représente la cité canadienne de Dawson ainsi que dans la montagne voisine de Tauplitzalm (de).
 </t>
         </is>
       </c>
@@ -660,9 +680,11 @@
           <t>Suite</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une suite intitulée Le Retour de Croc-Blanc (Il ritorno di Zanna Bianca), du même réalisateur, est sortie en 1974[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une suite intitulée Le Retour de Croc-Blanc (Il ritorno di Zanna Bianca), du même réalisateur, est sortie en 1974.
 </t>
         </is>
       </c>
